--- a/data/trans_dic/PCS12_SP_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/PCS12_SP_R2-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>36,01; 44,82</t>
+          <t>35,93; 45,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31,7; 41,43</t>
+          <t>31,07; 40,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,28; 39,53</t>
+          <t>30,31; 39,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>41,82; 50,82</t>
+          <t>41,32; 50,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>42,52; 54,28</t>
+          <t>42,93; 54,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>36,5; 48,77</t>
+          <t>37,14; 48,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,54; 38,73</t>
+          <t>28,13; 38,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>39,62; 47,18</t>
+          <t>39,38; 47,1</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>40,12; 47,08</t>
+          <t>39,54; 47,05</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>35,15; 42,57</t>
+          <t>35,5; 42,87</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>30,82; 37,74</t>
+          <t>30,58; 37,71</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>41,82; 47,9</t>
+          <t>41,68; 47,52</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>34,32; 44,54</t>
+          <t>34,32; 44,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>39,73; 50,51</t>
+          <t>39,22; 49,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28,26; 38,42</t>
+          <t>28,14; 38,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>38,19; 48,0</t>
+          <t>38,18; 48,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>35,62; 46,15</t>
+          <t>36,09; 45,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>35,5; 46,9</t>
+          <t>35,26; 46,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>32,15; 42,36</t>
+          <t>32,4; 42,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>41,27; 49,66</t>
+          <t>40,88; 49,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>36,19; 43,43</t>
+          <t>36,43; 43,76</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>39,1; 46,97</t>
+          <t>39,2; 46,74</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>31,45; 38,85</t>
+          <t>31,51; 38,77</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>40,8; 47,44</t>
+          <t>40,55; 46,88</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>39,77; 48,09</t>
+          <t>39,69; 48,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>45,57; 53,98</t>
+          <t>45,46; 53,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>39,44; 48,36</t>
+          <t>39,44; 47,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>46,87; 88,17</t>
+          <t>47,35; 88,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>48,71; 64,12</t>
+          <t>47,73; 63,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>49,81; 61,98</t>
+          <t>49,76; 62,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>39,24; 55,54</t>
+          <t>38,82; 55,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>51,57; 64,16</t>
+          <t>51,7; 64,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>43,02; 50,43</t>
+          <t>43,03; 50,57</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>48,42; 55,63</t>
+          <t>48,32; 55,09</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>40,66; 48,47</t>
+          <t>40,85; 48,59</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>50,25; 86,88</t>
+          <t>50,42; 85,49</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>44,84; 50,37</t>
+          <t>45,16; 50,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>44,23; 50,21</t>
+          <t>44,42; 50,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>40,64; 46,36</t>
+          <t>40,57; 46,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>44,97; 51,61</t>
+          <t>44,74; 51,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>50,29; 57,72</t>
+          <t>50,51; 57,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>44,17; 51,63</t>
+          <t>44,41; 51,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>40,69; 47,68</t>
+          <t>40,92; 47,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>51,07; 80,31</t>
+          <t>50,84; 80,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>47,79; 52,52</t>
+          <t>47,92; 52,3</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>45,32; 50,03</t>
+          <t>45,17; 50,01</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>41,59; 46,19</t>
+          <t>41,57; 45,8</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>49,1; 68,25</t>
+          <t>49,2; 68,52</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>43,95; 55,16</t>
+          <t>44,08; 54,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>42,1; 50,97</t>
+          <t>42,06; 51,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>37,95; 45,67</t>
+          <t>37,8; 45,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>48,25; 58,89</t>
+          <t>48,24; 58,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>54,21; 62,69</t>
+          <t>54,15; 62,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>58,35; 65,69</t>
+          <t>58,63; 66,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>51,35; 58,66</t>
+          <t>51,27; 58,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>39,57; 62,07</t>
+          <t>39,52; 61,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>51,79; 58,45</t>
+          <t>51,51; 58,29</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>53,2; 58,71</t>
+          <t>53,4; 58,95</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>46,31; 51,71</t>
+          <t>46,12; 51,8</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>44,41; 59,13</t>
+          <t>45,38; 59,23</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,36; 22,36</t>
+          <t>13,58; 22,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>18,44; 29,1</t>
+          <t>18,85; 29,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,43; 26,55</t>
+          <t>16,63; 26,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,5; 31,6</t>
+          <t>13,83; 31,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>62,76; 67,72</t>
+          <t>62,67; 67,98</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>56,93; 63,13</t>
+          <t>56,82; 63,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>50,53; 56,64</t>
+          <t>50,42; 56,77</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>53,14; 60,22</t>
+          <t>53,19; 60,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>53,32; 58,28</t>
+          <t>53,56; 58,25</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>50,17; 55,59</t>
+          <t>50,33; 55,86</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>44,12; 49,65</t>
+          <t>44,18; 49,66</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>44,51; 51,44</t>
+          <t>44,38; 51,97</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>40,74; 44,25</t>
+          <t>40,96; 44,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>42,18; 45,71</t>
+          <t>42,4; 45,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>37,17; 40,53</t>
+          <t>37,36; 40,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>45,32; 61,02</t>
+          <t>45,34; 62,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>55,15; 58,69</t>
+          <t>55,35; 58,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>52,61; 55,85</t>
+          <t>52,52; 55,94</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>46,1; 49,48</t>
+          <t>45,94; 49,38</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>50,91; 63,18</t>
+          <t>50,96; 64,09</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>48,59; 51,11</t>
+          <t>48,66; 51,1</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>48,05; 50,58</t>
+          <t>47,98; 50,4</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>42,21; 44,67</t>
+          <t>42,44; 44,73</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>49,08; 58,82</t>
+          <t>48,96; 57,95</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población por debajo de la mediana de la puntuación del componente de salud física (SF12)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>597</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>192088</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>158796</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>148796</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>231058</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>148807</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>134027</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>115255</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>192759</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>340895</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>292824</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>264051</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>423817</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>170209; 214363</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>135850; 179220</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>130064; 168757</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>207865; 254230</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>131657; 167986</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>116796; 152611</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>97630; 133829</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>175704; 210166</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>308590; 367237</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>266871; 322208</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>237351; 292699</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>395680; 451097</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>144994</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>186205</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>124051</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>193778</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>151003</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>138609</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>138850</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>173400</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>295996</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>324814</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>262902</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>367177</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>125924; 164462</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>164244; 206664</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>106164; 143617</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>172376; 216850</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>134202; 169625</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>119186; 157936</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>120619; 158653</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>156159; 188768</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>269148; 323278</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>296632; 353755</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>236195; 290579</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>337956; 390754</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>237678</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>313445</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>228110</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>448995</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>93999</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>145610</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>79450</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>96412</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>331677</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>459055</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>307559</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>545408</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>215290; 261443</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>286132; 338417</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>205817; 250113</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>315024; 589071</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>80075; 106478</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>129451; 161380</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>64496; 92175</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>85776; 106979</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>305619; 359103</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>429811; 490011</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>281030; 334317</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>419156; 710633</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>481</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>607</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>706</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>972</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>844</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>817</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1313</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>592477</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>547361</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>498660</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>498428</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>386409</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>366985</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>364973</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>607664</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>978886</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>914347</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>863632</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1106093</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>559255; 629104</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>514792; 582217</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>466369; 534723</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>460698; 532228</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>360815; 413619</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>340489; 394245</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>337961; 394216</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>496064; 783755</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>935653; 1021173</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>869864; 962959</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>821299; 904698</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>986802; 1374217</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>844</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>484</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>662</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>627</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1155</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>173231</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>238558</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>259518</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>251572</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>332654</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>473796</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>406218</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>459500</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>505885</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>712354</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>665736</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>711071</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>154516; 191451</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>214768; 262156</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>234627; 284147</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>226926; 275284</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>307996; 355245</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>446455; 503481</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>378490; 433873</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>330681; 515924</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>473541; 535868</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>679306; 749965</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>626690; 703936</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>593184; 774211</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>619</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>503</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>762</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>679</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>559</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>791</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>52659</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>63067</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>60275</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>50381</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>814002</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>665480</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>581880</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>426451</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>866661</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>728547</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>642155</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>476832</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>40505; 67487</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>50296; 78200</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>47763; 74702</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>33261; 75273</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>782610; 848892</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>630307; 699577</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>545533; 614289</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>400290; 452388</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>828506; 901141</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>692635; 768737</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>604920; 679991</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>440718; 516104</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1386</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1387</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1266</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1698</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1868</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1773</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1513</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>3106</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>3254</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>3160</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>2779</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>4804</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1393128</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1507432</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1319410</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1674213</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1926874</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1924509</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1686626</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1956186</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>3320001</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>3431941</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>3006035</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>3630398</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1339546; 1448996</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1450721; 1565787</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1264994; 1380422</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1523793; 2098511</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1869654; 1983498</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1864369; 1985926</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1622413; 1743788</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1813807; 2281169</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>3235053; 3397116</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>3345325; 3514254</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>2935637; 3093909</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>3387666; 4009899</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/PCS12_SP_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/PCS12_SP_R2-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
